--- a/ONCHO/Impact Assessments/Togo/tg_oncho_stop_3_elisa_202204.xlsx
+++ b/ONCHO/Impact Assessments/Togo/tg_oncho_stop_3_elisa_202204.xlsx
@@ -129,10 +129,10 @@
     <t>Scanner l’identification (Identifiant) du Participant</t>
   </si>
   <si>
-    <t>regex(., '^[a-zA-Z]{2}-[0-9]{4,5}$')</t>
-  </si>
-  <si>
-    <t>Le format du QR code est incorrect. Ex s'un format correct : SA-00001</t>
+    <t>regex(., '^SA [0-9]{5} [0-9]{2}$')</t>
+  </si>
+  <si>
+    <t>Le format du QR code est incorrect. Ex s'un format correct : SA 00001 22</t>
   </si>
   <si>
     <t>select_one results</t>
@@ -947,67 +947,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1021,30 +961,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1059,9 +999,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1081,9 +1044,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1116,13 +1116,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1134,19 +1188,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1158,25 +1206,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1194,97 +1242,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,7 +1254,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1325,6 +1325,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1336,6 +1365,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1355,26 +1408,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1389,184 +1422,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1974,7 +1974,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="$A9:$XFD10"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>

--- a/ONCHO/Impact Assessments/Togo/tg_oncho_stop_3_elisa_202204.xlsx
+++ b/ONCHO/Impact Assessments/Togo/tg_oncho_stop_3_elisa_202204.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12315" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="294">
   <si>
     <t>type</t>
   </si>
@@ -678,9 +678,6 @@
     <t>DATOUDJENA</t>
   </si>
   <si>
-    <t>Naki-Ouest</t>
-  </si>
-  <si>
     <t>NABOAGBANE</t>
   </si>
   <si>
@@ -894,10 +891,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Avr 2022) ONCHO stop TDM - 3. Formulaire OV16</t>
-  </si>
-  <si>
-    <t>tg_oncho_stop_3_elisa_202204</t>
+    <t>(Avr 2022) ONCHO stop TDM - 3. Formulaire OV16 V2</t>
+  </si>
+  <si>
+    <t>tg_oncho_stop_3_elisa_202204_2</t>
   </si>
   <si>
     <t>French</t>
@@ -908,10 +905,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -947,7 +944,82 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -962,6 +1034,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -969,15 +1056,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -991,99 +1079,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1116,7 +1113,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1128,43 +1191,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1176,19 +1209,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,25 +1239,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1236,55 +1263,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,7 +1287,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1325,22 +1322,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1386,24 +1378,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1422,151 +1401,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1969,7 +1966,7 @@
   <sheetPr/>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2268,9 +2265,9 @@
   <dimension ref="A1:J377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="$A21:$XFD377"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:I377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4803,7 +4800,7 @@
       </c>
       <c r="D166" s="13"/>
       <c r="E166" s="13" t="s">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="F166" s="17"/>
     </row>
@@ -4812,10 +4809,10 @@
         <v>52</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D167" s="13"/>
       <c r="E167" s="13" t="s">
@@ -4828,10 +4825,10 @@
         <v>52</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D168" s="13"/>
       <c r="E168" s="13" t="s">
@@ -4844,10 +4841,10 @@
         <v>52</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D169" s="13"/>
       <c r="E169" s="13" t="s">
@@ -4860,10 +4857,10 @@
         <v>52</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D170" s="13"/>
       <c r="E170" s="13" t="s">
@@ -4876,10 +4873,10 @@
         <v>52</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D171" s="13"/>
       <c r="E171" s="13" t="s">
@@ -4892,10 +4889,10 @@
         <v>52</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D172" s="13"/>
       <c r="E172" s="13" t="s">
@@ -4908,10 +4905,10 @@
         <v>52</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D173" s="13"/>
       <c r="E173" s="13" t="s">
@@ -4924,10 +4921,10 @@
         <v>52</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D174" s="13"/>
       <c r="E174" s="13" t="s">
@@ -4940,10 +4937,10 @@
         <v>52</v>
       </c>
       <c r="B175" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D175" s="13"/>
       <c r="E175" s="13" t="s">
@@ -4956,10 +4953,10 @@
         <v>52</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D176" s="13"/>
       <c r="E176" s="13" t="s">
@@ -4972,10 +4969,10 @@
         <v>52</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D177" s="13"/>
       <c r="E177" s="13" t="s">
@@ -4988,10 +4985,10 @@
         <v>52</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D178" s="13"/>
       <c r="E178" s="13" t="s">
@@ -5004,10 +5001,10 @@
         <v>52</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D179" s="13"/>
       <c r="E179" s="13" t="s">
@@ -5020,10 +5017,10 @@
         <v>52</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D180" s="13"/>
       <c r="E180" s="13" t="s">
@@ -5036,10 +5033,10 @@
         <v>52</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D181" s="13"/>
       <c r="E181" s="13" t="s">
@@ -5052,10 +5049,10 @@
         <v>52</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D182" s="13"/>
       <c r="E182" s="13" t="s">
@@ -5068,10 +5065,10 @@
         <v>52</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D183" s="13"/>
       <c r="E183" s="13" t="s">
@@ -5084,10 +5081,10 @@
         <v>52</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D184" s="13"/>
       <c r="E184" s="13" t="s">
@@ -5100,10 +5097,10 @@
         <v>52</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D185" s="13"/>
       <c r="E185" s="13" t="s">
@@ -5116,10 +5113,10 @@
         <v>52</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D186" s="13"/>
       <c r="E186" s="13" t="s">
@@ -5132,10 +5129,10 @@
         <v>52</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D187" s="13"/>
       <c r="E187" s="13" t="s">
@@ -5148,10 +5145,10 @@
         <v>52</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D188" s="13"/>
       <c r="E188" s="13" t="s">
@@ -5164,10 +5161,10 @@
         <v>52</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D189" s="13"/>
       <c r="E189" s="13" t="s">
@@ -5180,10 +5177,10 @@
         <v>52</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D190" s="13"/>
       <c r="E190" s="13" t="s">
@@ -5196,10 +5193,10 @@
         <v>52</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D191" s="13"/>
       <c r="E191" s="13" t="s">
@@ -5212,10 +5209,10 @@
         <v>52</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D192" s="13"/>
       <c r="E192" s="13" t="s">
@@ -5228,10 +5225,10 @@
         <v>52</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D193" s="13"/>
       <c r="E193" s="13" t="s">
@@ -5244,10 +5241,10 @@
         <v>52</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D194" s="13"/>
       <c r="E194" s="13" t="s">
@@ -5260,10 +5257,10 @@
         <v>52</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D195" s="13"/>
       <c r="E195" s="13" t="s">
@@ -5276,10 +5273,10 @@
         <v>52</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D196" s="13"/>
       <c r="E196" s="13" t="s">
@@ -5308,10 +5305,10 @@
         <v>52</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D198" s="13"/>
       <c r="E198" s="13" t="s">
@@ -5324,10 +5321,10 @@
         <v>52</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D199" s="13"/>
       <c r="E199" s="13" t="s">
@@ -5340,10 +5337,10 @@
         <v>52</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D200" s="13"/>
       <c r="E200" s="13" t="s">
@@ -5356,10 +5353,10 @@
         <v>52</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D201" s="13"/>
       <c r="E201" s="13" t="s">
@@ -5372,10 +5369,10 @@
         <v>52</v>
       </c>
       <c r="B202" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D202" s="13"/>
       <c r="E202" s="13" t="s">
@@ -5388,10 +5385,10 @@
         <v>52</v>
       </c>
       <c r="B203" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D203" s="13"/>
       <c r="E203" s="13" t="s">
@@ -5404,10 +5401,10 @@
         <v>52</v>
       </c>
       <c r="B204" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D204" s="13"/>
       <c r="E204" s="13" t="s">
@@ -5420,10 +5417,10 @@
         <v>52</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D205" s="13"/>
       <c r="E205" s="13" t="s">
@@ -5436,10 +5433,10 @@
         <v>52</v>
       </c>
       <c r="B206" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D206" s="13"/>
       <c r="E206" s="13" t="s">
@@ -5452,10 +5449,10 @@
         <v>52</v>
       </c>
       <c r="B207" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D207" s="13"/>
       <c r="E207" s="13" t="s">
@@ -5484,10 +5481,10 @@
         <v>52</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D209" s="13"/>
       <c r="E209" s="13" t="s">
@@ -5500,10 +5497,10 @@
         <v>52</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D210" s="13"/>
       <c r="E210" s="13" t="s">
@@ -5516,10 +5513,10 @@
         <v>52</v>
       </c>
       <c r="B211" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D211" s="13"/>
       <c r="E211" s="13" t="s">
@@ -5532,10 +5529,10 @@
         <v>52</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D212" s="13"/>
       <c r="E212" s="13" t="s">
@@ -5548,10 +5545,10 @@
         <v>52</v>
       </c>
       <c r="B213" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C213" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D213" s="13"/>
       <c r="E213" s="13" t="s">
@@ -5564,10 +5561,10 @@
         <v>52</v>
       </c>
       <c r="B214" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D214" s="13"/>
       <c r="E214" s="13" t="s">
@@ -5580,10 +5577,10 @@
         <v>52</v>
       </c>
       <c r="B215" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D215" s="13"/>
       <c r="E215" s="13" t="s">
@@ -5596,10 +5593,10 @@
         <v>52</v>
       </c>
       <c r="B216" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D216" s="13"/>
       <c r="E216" s="13" t="s">
@@ -5612,10 +5609,10 @@
         <v>52</v>
       </c>
       <c r="B217" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D217" s="13"/>
       <c r="E217" s="13" t="s">
@@ -5628,10 +5625,10 @@
         <v>52</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D218" s="13"/>
       <c r="E218" s="13" t="s">
@@ -5644,10 +5641,10 @@
         <v>52</v>
       </c>
       <c r="B219" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D219" s="13"/>
       <c r="E219" s="13" t="s">
@@ -5660,10 +5657,10 @@
         <v>52</v>
       </c>
       <c r="B220" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D220" s="13"/>
       <c r="E220" s="13" t="s">
@@ -5676,10 +5673,10 @@
         <v>52</v>
       </c>
       <c r="B221" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D221" s="13"/>
       <c r="E221" s="13" t="s">
@@ -5692,10 +5689,10 @@
         <v>52</v>
       </c>
       <c r="B222" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D222" s="13"/>
       <c r="E222" s="13" t="s">
@@ -5708,10 +5705,10 @@
         <v>52</v>
       </c>
       <c r="B223" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D223" s="13"/>
       <c r="E223" s="13" t="s">
@@ -5724,10 +5721,10 @@
         <v>52</v>
       </c>
       <c r="B224" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D224" s="13"/>
       <c r="E224" s="13" t="s">
@@ -5740,10 +5737,10 @@
         <v>52</v>
       </c>
       <c r="B225" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D225" s="13"/>
       <c r="E225" s="13" t="s">
@@ -5756,10 +5753,10 @@
         <v>52</v>
       </c>
       <c r="B226" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D226" s="13"/>
       <c r="E226" s="13" t="s">
@@ -5772,10 +5769,10 @@
         <v>52</v>
       </c>
       <c r="B227" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D227" s="13"/>
       <c r="E227" s="13" t="s">
@@ -5788,10 +5785,10 @@
         <v>52</v>
       </c>
       <c r="B228" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D228" s="13"/>
       <c r="E228" s="13" t="s">
@@ -5820,10 +5817,10 @@
         <v>52</v>
       </c>
       <c r="B230" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D230" s="13"/>
       <c r="E230" s="13" t="s">
@@ -5836,10 +5833,10 @@
         <v>52</v>
       </c>
       <c r="B231" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D231" s="13"/>
       <c r="E231" s="13" t="s">
@@ -5852,10 +5849,10 @@
         <v>52</v>
       </c>
       <c r="B232" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D232" s="13"/>
       <c r="E232" s="13" t="s">
@@ -5868,10 +5865,10 @@
         <v>52</v>
       </c>
       <c r="B233" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D233" s="13"/>
       <c r="E233" s="13" t="s">
@@ -5884,10 +5881,10 @@
         <v>52</v>
       </c>
       <c r="B234" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D234" s="13"/>
       <c r="E234" s="13" t="s">
@@ -5900,10 +5897,10 @@
         <v>52</v>
       </c>
       <c r="B235" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D235" s="13"/>
       <c r="E235" s="13" t="s">
@@ -5916,10 +5913,10 @@
         <v>52</v>
       </c>
       <c r="B236" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D236" s="13"/>
       <c r="E236" s="13" t="s">
@@ -5937,7 +5934,7 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B238" s="12">
         <v>101</v>
@@ -5953,7 +5950,7 @@
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B239" s="12">
         <v>102</v>
@@ -5969,7 +5966,7 @@
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B240" s="12">
         <v>103</v>
@@ -5985,7 +5982,7 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B241" s="12">
         <v>104</v>
@@ -6001,7 +5998,7 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B242" s="12">
         <v>105</v>
@@ -6017,7 +6014,7 @@
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B243" s="12">
         <v>106</v>
@@ -6033,7 +6030,7 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B244" s="12">
         <v>107</v>
@@ -6049,7 +6046,7 @@
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B245" s="12">
         <v>108</v>
@@ -6065,7 +6062,7 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B246" s="12">
         <v>109</v>
@@ -6081,7 +6078,7 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B247" s="12">
         <v>110</v>
@@ -6097,7 +6094,7 @@
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B248" s="12">
         <v>111</v>
@@ -6113,7 +6110,7 @@
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B249" s="12">
         <v>112</v>
@@ -6129,7 +6126,7 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B250" s="12">
         <v>113</v>
@@ -6140,12 +6137,12 @@
       <c r="D250" s="17"/>
       <c r="E250" s="17"/>
       <c r="F250" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B251" s="12">
         <v>114</v>
@@ -6156,12 +6153,12 @@
       <c r="D251" s="17"/>
       <c r="E251" s="17"/>
       <c r="F251" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B252" s="12">
         <v>115</v>
@@ -6172,12 +6169,12 @@
       <c r="D252" s="17"/>
       <c r="E252" s="17"/>
       <c r="F252" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B253" s="12">
         <v>116</v>
@@ -6193,7 +6190,7 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B254" s="12">
         <v>117</v>
@@ -6209,7 +6206,7 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B255" s="12">
         <v>118</v>
@@ -6225,7 +6222,7 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B256" s="12">
         <v>119</v>
@@ -6241,7 +6238,7 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B257" s="12">
         <v>120</v>
@@ -6257,7 +6254,7 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B258" s="12">
         <v>121</v>
@@ -6273,7 +6270,7 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B259" s="12">
         <v>122</v>
@@ -6289,7 +6286,7 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B260" s="12">
         <v>123</v>
@@ -6305,7 +6302,7 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B261" s="12">
         <v>124</v>
@@ -6321,7 +6318,7 @@
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B262" s="12">
         <v>125</v>
@@ -6337,7 +6334,7 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B263" s="12">
         <v>126</v>
@@ -6348,12 +6345,12 @@
       <c r="D263" s="17"/>
       <c r="E263" s="17"/>
       <c r="F263" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B264" s="12">
         <v>127</v>
@@ -6364,12 +6361,12 @@
       <c r="D264" s="17"/>
       <c r="E264" s="17"/>
       <c r="F264" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B265" s="12">
         <v>128</v>
@@ -6380,12 +6377,12 @@
       <c r="D265" s="17"/>
       <c r="E265" s="17"/>
       <c r="F265" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B266" s="12">
         <v>129</v>
@@ -6396,12 +6393,12 @@
       <c r="D266" s="17"/>
       <c r="E266" s="17"/>
       <c r="F266" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B267" s="12">
         <v>130</v>
@@ -6412,12 +6409,12 @@
       <c r="D267" s="17"/>
       <c r="E267" s="17"/>
       <c r="F267" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B268" s="12">
         <v>131</v>
@@ -6428,12 +6425,12 @@
       <c r="D268" s="17"/>
       <c r="E268" s="17"/>
       <c r="F268" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B269" s="12">
         <v>132</v>
@@ -6444,12 +6441,12 @@
       <c r="D269" s="17"/>
       <c r="E269" s="17"/>
       <c r="F269" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B270" s="12">
         <v>133</v>
@@ -6460,12 +6457,12 @@
       <c r="D270" s="17"/>
       <c r="E270" s="17"/>
       <c r="F270" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B271" s="12">
         <v>134</v>
@@ -6476,12 +6473,12 @@
       <c r="D271" s="17"/>
       <c r="E271" s="17"/>
       <c r="F271" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B272" s="12">
         <v>135</v>
@@ -6497,7 +6494,7 @@
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B273" s="12">
         <v>136</v>
@@ -6513,7 +6510,7 @@
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B274" s="12">
         <v>137</v>
@@ -6529,7 +6526,7 @@
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B275" s="12">
         <v>138</v>
@@ -6545,7 +6542,7 @@
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B276" s="12">
         <v>139</v>
@@ -6561,7 +6558,7 @@
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B277" s="12">
         <v>140</v>
@@ -6572,12 +6569,12 @@
       <c r="D277" s="17"/>
       <c r="E277" s="17"/>
       <c r="F277" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B278" s="12">
         <v>141</v>
@@ -6588,12 +6585,12 @@
       <c r="D278" s="17"/>
       <c r="E278" s="17"/>
       <c r="F278" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B279" s="12">
         <v>142</v>
@@ -6604,12 +6601,12 @@
       <c r="D279" s="17"/>
       <c r="E279" s="17"/>
       <c r="F279" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B280" s="12">
         <v>143</v>
@@ -6620,12 +6617,12 @@
       <c r="D280" s="17"/>
       <c r="E280" s="17"/>
       <c r="F280" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B281" s="12">
         <v>144</v>
@@ -6636,12 +6633,12 @@
       <c r="D281" s="17"/>
       <c r="E281" s="17"/>
       <c r="F281" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B282" s="12">
         <v>145</v>
@@ -6652,12 +6649,12 @@
       <c r="D282" s="17"/>
       <c r="E282" s="17"/>
       <c r="F282" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B283" s="12">
         <v>146</v>
@@ -6668,12 +6665,12 @@
       <c r="D283" s="17"/>
       <c r="E283" s="17"/>
       <c r="F283" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B284" s="12">
         <v>147</v>
@@ -6689,7 +6686,7 @@
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B285" s="12">
         <v>148</v>
@@ -6705,7 +6702,7 @@
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B286" s="12">
         <v>149</v>
@@ -6721,7 +6718,7 @@
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B287" s="12">
         <v>150</v>
@@ -6737,7 +6734,7 @@
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B288" s="12">
         <v>151</v>
@@ -6753,7 +6750,7 @@
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B289" s="12">
         <v>152</v>
@@ -6769,7 +6766,7 @@
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B290" s="12">
         <v>153</v>
@@ -6785,7 +6782,7 @@
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B291" s="12">
         <v>154</v>
@@ -6801,7 +6798,7 @@
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B292" s="12">
         <v>155</v>
@@ -6817,7 +6814,7 @@
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B293" s="12">
         <v>156</v>
@@ -6833,7 +6830,7 @@
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B294" s="12">
         <v>157</v>
@@ -6849,7 +6846,7 @@
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B295" s="12">
         <v>158</v>
@@ -6865,7 +6862,7 @@
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B296" s="12">
         <v>159</v>
@@ -6881,7 +6878,7 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B297" s="12">
         <v>160</v>
@@ -6897,7 +6894,7 @@
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B298" s="12">
         <v>161</v>
@@ -6913,7 +6910,7 @@
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B299" s="12">
         <v>162</v>
@@ -6929,7 +6926,7 @@
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B300" s="12">
         <v>163</v>
@@ -6945,7 +6942,7 @@
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B301" s="12">
         <v>164</v>
@@ -6956,12 +6953,12 @@
       <c r="D301" s="17"/>
       <c r="E301" s="17"/>
       <c r="F301" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B302" s="12">
         <v>165</v>
@@ -6972,12 +6969,12 @@
       <c r="D302" s="17"/>
       <c r="E302" s="17"/>
       <c r="F302" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B303" s="12">
         <v>166</v>
@@ -6988,12 +6985,12 @@
       <c r="D303" s="17"/>
       <c r="E303" s="17"/>
       <c r="F303" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B304" s="12">
         <v>167</v>
@@ -7004,12 +7001,12 @@
       <c r="D304" s="17"/>
       <c r="E304" s="17"/>
       <c r="F304" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B305" s="12">
         <v>168</v>
@@ -7020,12 +7017,12 @@
       <c r="D305" s="17"/>
       <c r="E305" s="17"/>
       <c r="F305" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B306" s="12">
         <v>169</v>
@@ -7041,7 +7038,7 @@
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B307" s="12">
         <v>170</v>
@@ -7052,12 +7049,12 @@
       <c r="D307" s="17"/>
       <c r="E307" s="17"/>
       <c r="F307" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B308" s="12">
         <v>171</v>
@@ -7068,12 +7065,12 @@
       <c r="D308" s="17"/>
       <c r="E308" s="17"/>
       <c r="F308" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B309" s="12">
         <v>172</v>
@@ -7084,12 +7081,12 @@
       <c r="D309" s="17"/>
       <c r="E309" s="17"/>
       <c r="F309" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B310" s="12">
         <v>173</v>
@@ -7100,12 +7097,12 @@
       <c r="D310" s="17"/>
       <c r="E310" s="17"/>
       <c r="F310" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B311" s="12">
         <v>174</v>
@@ -7116,12 +7113,12 @@
       <c r="D311" s="17"/>
       <c r="E311" s="17"/>
       <c r="F311" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B312" s="12">
         <v>175</v>
@@ -7132,12 +7129,12 @@
       <c r="D312" s="17"/>
       <c r="E312" s="17"/>
       <c r="F312" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B313" s="12">
         <v>176</v>
@@ -7148,12 +7145,12 @@
       <c r="D313" s="17"/>
       <c r="E313" s="17"/>
       <c r="F313" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B314" s="12">
         <v>177</v>
@@ -7164,12 +7161,12 @@
       <c r="D314" s="17"/>
       <c r="E314" s="17"/>
       <c r="F314" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B315" s="12">
         <v>178</v>
@@ -7180,12 +7177,12 @@
       <c r="D315" s="17"/>
       <c r="E315" s="17"/>
       <c r="F315" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B316" s="12">
         <v>179</v>
@@ -7201,7 +7198,7 @@
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B317" s="12">
         <v>180</v>
@@ -7217,7 +7214,7 @@
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B318" s="12">
         <v>181</v>
@@ -7233,7 +7230,7 @@
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B319" s="12">
         <v>182</v>
@@ -7249,7 +7246,7 @@
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B320" s="12">
         <v>183</v>
@@ -7265,7 +7262,7 @@
     </row>
     <row r="321" spans="1:6">
       <c r="A321" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B321" s="12">
         <v>184</v>
@@ -7281,7 +7278,7 @@
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B322" s="12">
         <v>185</v>
@@ -7297,7 +7294,7 @@
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B323" s="12">
         <v>186</v>
@@ -7313,7 +7310,7 @@
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B324" s="12">
         <v>187</v>
@@ -7329,7 +7326,7 @@
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B325" s="12">
         <v>188</v>
@@ -7345,7 +7342,7 @@
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B326" s="12">
         <v>189</v>
@@ -7361,7 +7358,7 @@
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B327" s="12">
         <v>190</v>
@@ -7372,12 +7369,12 @@
       <c r="D327" s="17"/>
       <c r="E327" s="17"/>
       <c r="F327" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B328" s="12">
         <v>191</v>
@@ -7388,12 +7385,12 @@
       <c r="D328" s="17"/>
       <c r="E328" s="17"/>
       <c r="F328" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B329" s="12">
         <v>192</v>
@@ -7404,12 +7401,12 @@
       <c r="D329" s="17"/>
       <c r="E329" s="17"/>
       <c r="F329" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B330" s="12">
         <v>193</v>
@@ -7420,12 +7417,12 @@
       <c r="D330" s="17"/>
       <c r="E330" s="17"/>
       <c r="F330" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B331" s="12">
         <v>194</v>
@@ -7436,12 +7433,12 @@
       <c r="D331" s="17"/>
       <c r="E331" s="17"/>
       <c r="F331" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B332" s="12">
         <v>195</v>
@@ -7452,12 +7449,12 @@
       <c r="D332" s="17"/>
       <c r="E332" s="17"/>
       <c r="F332" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B333" s="12">
         <v>196</v>
@@ -7468,12 +7465,12 @@
       <c r="D333" s="17"/>
       <c r="E333" s="17"/>
       <c r="F333" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B334" s="12">
         <v>197</v>
@@ -7484,12 +7481,12 @@
       <c r="D334" s="17"/>
       <c r="E334" s="17"/>
       <c r="F334" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="335" spans="1:6">
       <c r="A335" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B335" s="12">
         <v>198</v>
@@ -7500,12 +7497,12 @@
       <c r="D335" s="17"/>
       <c r="E335" s="17"/>
       <c r="F335" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B336" s="12">
         <v>199</v>
@@ -7516,12 +7513,12 @@
       <c r="D336" s="17"/>
       <c r="E336" s="17"/>
       <c r="F336" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="337" spans="1:6">
       <c r="A337" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B337" s="12">
         <v>200</v>
@@ -7532,12 +7529,12 @@
       <c r="D337" s="17"/>
       <c r="E337" s="17"/>
       <c r="F337" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="338" spans="1:6">
       <c r="A338" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B338" s="12">
         <v>201</v>
@@ -7553,7 +7550,7 @@
     </row>
     <row r="339" spans="1:6">
       <c r="A339" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B339" s="12">
         <v>202</v>
@@ -7569,7 +7566,7 @@
     </row>
     <row r="340" spans="1:6">
       <c r="A340" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B340" s="12">
         <v>203</v>
@@ -7585,7 +7582,7 @@
     </row>
     <row r="341" spans="1:6">
       <c r="A341" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B341" s="12">
         <v>204</v>
@@ -7601,7 +7598,7 @@
     </row>
     <row r="342" spans="1:6">
       <c r="A342" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B342" s="12">
         <v>205</v>
@@ -7617,7 +7614,7 @@
     </row>
     <row r="343" spans="1:6">
       <c r="A343" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B343" s="12">
         <v>206</v>
@@ -7633,7 +7630,7 @@
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B344" s="12">
         <v>207</v>
@@ -7649,7 +7646,7 @@
     </row>
     <row r="345" spans="1:6">
       <c r="A345" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B345" s="5">
         <v>208</v>
@@ -7665,7 +7662,7 @@
     </row>
     <row r="346" spans="1:6">
       <c r="A346" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B346" s="12">
         <v>209</v>
@@ -7679,7 +7676,7 @@
     </row>
     <row r="347" spans="1:6">
       <c r="A347" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B347" s="12">
         <v>210</v>
@@ -7688,12 +7685,12 @@
         <v>210</v>
       </c>
       <c r="F347" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="348" spans="1:6">
       <c r="A348" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B348" s="12">
         <v>211</v>
@@ -7702,12 +7699,12 @@
         <v>211</v>
       </c>
       <c r="F348" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="349" spans="1:6">
       <c r="A349" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B349" s="12">
         <v>212</v>
@@ -7716,12 +7713,12 @@
         <v>212</v>
       </c>
       <c r="F349" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="350" spans="1:6">
       <c r="A350" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B350" s="12">
         <v>213</v>
@@ -7730,12 +7727,12 @@
         <v>213</v>
       </c>
       <c r="F350" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="351" spans="1:6">
       <c r="A351" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B351" s="12">
         <v>214</v>
@@ -7744,12 +7741,12 @@
         <v>214</v>
       </c>
       <c r="F351" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="352" spans="1:6">
       <c r="A352" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B352" s="12">
         <v>215</v>
@@ -7758,12 +7755,12 @@
         <v>215</v>
       </c>
       <c r="F352" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="353" spans="1:6">
       <c r="A353" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B353" s="12">
         <v>216</v>
@@ -7772,12 +7769,12 @@
         <v>216</v>
       </c>
       <c r="F353" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="354" spans="1:6">
       <c r="A354" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B354" s="12">
         <v>217</v>
@@ -7786,12 +7783,12 @@
         <v>217</v>
       </c>
       <c r="F354" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="355" spans="1:6">
       <c r="A355" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B355" s="12">
         <v>218</v>
@@ -7800,12 +7797,12 @@
         <v>218</v>
       </c>
       <c r="F355" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="356" spans="1:6">
       <c r="A356" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B356" s="12">
         <v>219</v>
@@ -7814,12 +7811,12 @@
         <v>219</v>
       </c>
       <c r="F356" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="357" spans="1:6">
       <c r="A357" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B357" s="12">
         <v>220</v>
@@ -7828,12 +7825,12 @@
         <v>220</v>
       </c>
       <c r="F357" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="358" spans="1:6">
       <c r="A358" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B358" s="12">
         <v>221</v>
@@ -7847,7 +7844,7 @@
     </row>
     <row r="359" spans="1:6">
       <c r="A359" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B359" s="12">
         <v>222</v>
@@ -7861,7 +7858,7 @@
     </row>
     <row r="360" spans="1:6">
       <c r="A360" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B360" s="12">
         <v>223</v>
@@ -7875,7 +7872,7 @@
     </row>
     <row r="361" spans="1:6">
       <c r="A361" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B361" s="12">
         <v>224</v>
@@ -7889,7 +7886,7 @@
     </row>
     <row r="362" spans="1:6">
       <c r="A362" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B362" s="12">
         <v>225</v>
@@ -7903,7 +7900,7 @@
     </row>
     <row r="363" spans="1:6">
       <c r="A363" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B363" s="12">
         <v>226</v>
@@ -7917,7 +7914,7 @@
     </row>
     <row r="364" spans="1:6">
       <c r="A364" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B364" s="12">
         <v>227</v>
@@ -7931,7 +7928,7 @@
     </row>
     <row r="365" spans="1:6">
       <c r="A365" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B365" s="12">
         <v>228</v>
@@ -7940,12 +7937,12 @@
         <v>228</v>
       </c>
       <c r="F365" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="366" spans="1:6">
       <c r="A366" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B366" s="12">
         <v>229</v>
@@ -7959,7 +7956,7 @@
     </row>
     <row r="367" spans="1:6">
       <c r="A367" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B367" s="12">
         <v>230</v>
@@ -7968,12 +7965,12 @@
         <v>230</v>
       </c>
       <c r="F367" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="368" spans="1:6">
       <c r="A368" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B368" s="12">
         <v>231</v>
@@ -7982,12 +7979,12 @@
         <v>231</v>
       </c>
       <c r="F368" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="369" spans="1:6">
       <c r="A369" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B369" s="12">
         <v>232</v>
@@ -7996,12 +7993,12 @@
         <v>232</v>
       </c>
       <c r="F369" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="370" spans="1:6">
       <c r="A370" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B370" s="12">
         <v>233</v>
@@ -8010,12 +8007,12 @@
         <v>233</v>
       </c>
       <c r="F370" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="371" spans="1:6">
       <c r="A371" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B371" s="12">
         <v>234</v>
@@ -8024,12 +8021,12 @@
         <v>234</v>
       </c>
       <c r="F371" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="372" spans="1:6">
       <c r="A372" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B372" s="12">
         <v>235</v>
@@ -8038,12 +8035,12 @@
         <v>235</v>
       </c>
       <c r="F372" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="373" spans="1:6">
       <c r="A373" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B373" s="12">
         <v>236</v>
@@ -8052,12 +8049,12 @@
         <v>236</v>
       </c>
       <c r="F373" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="374" spans="1:6">
       <c r="A374" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B374" s="12">
         <v>237</v>
@@ -8066,12 +8063,12 @@
         <v>237</v>
       </c>
       <c r="F374" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="375" spans="1:6">
       <c r="A375" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B375" s="12">
         <v>238</v>
@@ -8080,12 +8077,12 @@
         <v>238</v>
       </c>
       <c r="F375" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="376" spans="1:6">
       <c r="A376" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B376" s="12">
         <v>239</v>
@@ -8094,12 +8091,12 @@
         <v>239</v>
       </c>
       <c r="F376" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="377" spans="1:6">
       <c r="A377" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B377" s="12">
         <v>240</v>
@@ -8108,7 +8105,7 @@
         <v>240</v>
       </c>
       <c r="F377" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -8125,8 +8122,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -8137,24 +8134,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" t="s">
         <v>292</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>293</v>
-      </c>
-      <c r="C2" t="s">
-        <v>294</v>
       </c>
     </row>
   </sheetData>
